--- a/Transcom-Tagamo3-DataBase/ReadyToSend/August-2025/جدول يوم 12-8-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/August-2025/جدول يوم 12-8-2025.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Daily Report Data" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$579</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$B$3:$H$577</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="564">
   <si>
     <t>بدايةالشيفت</t>
   </si>
@@ -1565,12 +1565,6 @@
   </si>
   <si>
     <t>رنا حسن</t>
-  </si>
-  <si>
-    <t>109 231 6631</t>
-  </si>
-  <si>
-    <t>فارس طارق</t>
   </si>
   <si>
     <t>حسين كرمان</t>
@@ -1980,7 +1974,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2008,6 +2002,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2349,7 +2349,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2373,16 +2373,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2391,85 +2391,85 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -2483,7 +2483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2575,13 +2575,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5081,611 +5084,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{2A7D5C6D-183D-4307-8C8E-B3F0A2F1FA96}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{D1942567-8259-4010-9F81-0EA49E1D0C30}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{0ABD6826-969D-4FA2-B1BD-25FE1E55A718}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{CD4D2A91-2380-4DB6-8A32-FB2072D81A37}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{266982F6-B057-48C7-B44E-BF82B62176F7}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{EC9F4572-0B87-43A3-9646-DB6B1F94BD7F}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{D9426A3A-E1A4-4861-8B0D-FE4E6DBC226A}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{3862A0D9-F73A-468C-A014-AE634D192B13}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{5A97E48E-03F5-4A01-99C2-56176F37C2EF}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{DF380D7C-34F0-4081-B7FD-F519221A5CC5}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{F435E60A-CDD9-46FD-9280-7305D9813776}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{A92CFE2C-DE37-4B5E-9433-387C1108E4E9}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{D4D8FA94-B9BD-45BD-929F-4803C7A5A152}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{4984DABC-5AA8-4FF2-95E3-BB2751F6CBCC}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{71DF8473-1C7A-48B5-819B-B7A1726A517A}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{04481DEA-DAEE-4A85-AD40-250D6DB31B89}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{874F300A-A8D4-447D-A9A2-19D7C2123E9A}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{5393CB75-AFAB-4B8F-A434-399205B01C58}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{92AF27FD-DAB3-48F3-9D25-4048D4D46938}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{6F279427-FFE7-4DFE-BD06-32DEF1CC799D}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{A42F3A9E-11CF-4E75-A0C3-89D213510476}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{CE559D14-18C9-4630-B36B-43CF26EF5BB3}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{1432862F-5D11-41D7-AFB7-87A1CF5CDF5E}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{541CDA6F-8278-4774-B5DB-F0588F82B557}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{F6C0FD83-B0FC-45DA-906A-AF5690D88541}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{FBA82AD7-BE29-4162-9C43-0BCA83386FD9}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{FD640A08-3AEE-4786-A7DF-8FB9F34491B0}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{0CCCB5D9-F599-423B-A16B-9B8C208B5B06}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{1E317691-2CAC-41DC-98AC-D9AE105196B3}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{BABAD7BE-E87A-485F-B5D9-B76D51C8A283}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{96B8E019-62A2-419B-83DB-46875E3B4C6D}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{CE412EA6-10AB-408D-B4EC-AEC5E4AC35BE}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{A077859E-691C-48D6-9597-DB4A72D876E2}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{DA48BB8E-2651-4D12-AE9F-4542F15263F6}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{A2B447DD-40C4-4B37-BE6E-66F9514DC42E}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{9FF4F356-789D-44D3-90F9-20FB5F60A99F}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{F4F505C1-66A1-4E10-848E-A3AD7CF4EFEA}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{60E39E08-4E02-4FDD-BCE8-1AC44C6D77D7}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{71A8093A-E564-420E-948E-9D3BD1F725A8}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{7D3E79E9-D74C-4A4D-A1A4-02F7365B2E99}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{84B254A8-A941-4C95-B29A-2BD8CFDA6071}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{5ECA3F25-5DA8-4BF7-B981-7955445D27CC}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{A20D0591-86E9-4B48-81A2-BBCED085835D}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{7320CB1E-F586-4C8F-9A60-55F51A07C3A1}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{8258005C-C714-4BA3-89B9-10E0116B4F7A}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{1B936435-452D-4722-A85A-DAC2A88076C9}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{270FBE3D-412A-4795-8D39-6AE3C13951E1}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{7198BDFF-AC23-43D0-8499-5D4D2CA81CD7}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{B756063A-AA98-4F9E-BBDF-070E05E72924}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{48FB1E03-C237-445A-957E-4D5ABA110847}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{EF4C43CC-3AD7-424B-9477-8D2793E7F57D}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{392C3B8A-558C-4ADD-9503-E2F9C0FFE51B}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{D36A370F-3FD2-45C2-B62C-5F8FE9DDE64E}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{2C469745-4332-48EB-893C-E38796BB7AEA}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{8C8C8472-5F8B-4805-9727-E772BD4A4C28}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{86770793-7ADE-4C22-953A-73BB3B0C66D3}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{FFBB40F9-EEEF-42C8-991B-48479EF87DA5}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{CF74242A-2A18-4CA9-BE0B-A0289CC96CE4}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{EB401C5F-6805-455A-9026-93368722F2D7}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{5CD9AD85-3318-4610-A837-C1F59DE98165}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{F317F5E0-F138-4FD3-AA9A-9C1AD94200FB}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{A41BA54F-2BFB-4535-A71F-05E77A9D5B11}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{42E790DA-E950-4020-B59A-37FB55FD778E}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{F1EFD526-4134-4B3C-9DDA-CD695012F260}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{4046C875-A5D8-4AFC-A099-2578E24EA286}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{C4E59C0A-95D7-4113-B49A-661BF4A5FE7B}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{EADEB2CC-787F-4408-9606-824E5330A575}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{A29F2E1D-6B1B-40C1-9EA0-5E1F69C52BF3}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{52726C75-8A53-4EC7-B269-464D38C977EB}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{FA60CE4B-711A-41A0-B891-13DF23F83D16}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{C5FA73DC-4455-487A-95CD-60A665CF8315}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{7AF2C6A9-1268-47DF-B7C5-C2F1A2B76272}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{CAB80203-DB1B-48DC-92B4-92752D430F0D}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{67DDAB2F-6BC8-424A-85A6-F59C744C124F}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{54AC5946-D92B-41D9-9D9C-C9E0F5B26BB5}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{4A4088F3-387A-49D0-849E-DCDDE866FA4C}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{ABF522DC-287E-44CA-BC63-9BD0DBC6080A}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{289B80F7-8F18-4C14-A3D1-98359BF2638D}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{61D55950-B0EF-41FA-AB81-4D9C3E658E9F}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{EB4B602F-5C89-4145-9579-B26F9AFF058B}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{36DB5346-807B-4776-AD6A-FBE83366F05B}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{25F9F781-D7C3-43ED-B679-648D5A9897D4}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{1494A0E1-D028-4B7E-86CB-55D92A3A828F}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{06185F9B-BC2A-4828-8F48-F7B9B58C9B2E}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{B741BEBE-6992-4BA0-A1F0-2B8DC8BCD2C0}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{C101467F-5927-4A26-AB70-E32AB8855858}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{D9691A90-3F49-4A72-A9CD-F283506A36C8}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{CFF30619-EBA6-439A-9A4C-30C253FF4E14}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{1BD869C0-B437-4CF2-A215-69F26A6A9853}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{6E879BB9-AD7B-412E-AC43-CDB4C053416F}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{A5C708FD-6BBD-4068-A39A-992E4B4AD859}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{19A92459-1E55-4A76-9C2F-B6D6DAEEF30A}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{6C3E8F73-215F-4D5A-84EA-8D047177D242}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{4AC51FAA-D8C0-4BE0-8295-231C010E786F}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{3D73DD46-BF8B-437C-932E-0D809B512BE1}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{04CA3AEC-DE50-4D0D-8873-9729251B04A2}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{F3633B78-D3FD-4311-B140-91EA613D2ED9}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{9FC4AB73-AD04-4C6F-96FB-DDD6EBD9FB3D}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{CCFA6215-961D-442D-A5A9-DF5147E3ADA4}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{BD5CE377-1C12-47C0-B89E-9068607B1767}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{4C106549-96C3-44B2-8584-8A36D57A69BF}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{CC5E4969-7DE1-42F7-9A80-68BB66AE1E58}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{237801CB-B0F2-4CDD-BAD2-80FC7555480B}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{353D724C-AB19-45F3-A7E8-2A4D9FB4EBE0}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{DA216615-60C6-4DCA-AA5B-A1481C239E18}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{D61757AC-13CE-4A67-9915-9E6ACDEE0E0F}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{2FEF7DD4-D023-47C0-9CD3-E7D4177F6240}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{1A4FB5C4-262F-4D2A-BAB7-FBA279DD3432}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{325FA721-57B6-42EB-8223-D75F4268E7AF}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{F0304088-CCB7-4DDC-A649-21D149650146}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{7A3CF4EA-2B02-4CA6-8590-6D0F388919E2}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{365AF383-FABD-4F28-B941-765273C9C3C0}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{58EBBD5A-EC65-42C1-800B-2CED285F6D96}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{A84351F5-EF4C-4E6F-8FA7-A21BA58449D4}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{853F8C83-DDC4-4BBD-BEDB-43E5124DDA76}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{4C555336-486A-4324-84A3-0B9555156112}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{5812CD41-5812-4221-A4EE-794807D5A2D7}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{4EE0317A-1B12-4F07-BC1B-3858AA2DB5BD}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{43D79B72-B680-4055-90A7-3C6BE0D8E6FB}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{5B9460C4-5CB5-481B-8DAE-CC129CC83356}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{7B47DD92-5FCD-45B2-8D22-8834D98E2462}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{1BF96BC3-DFD7-49C4-9CA7-B2AFCA969897}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{EE24B9E3-9228-452E-9D5A-DE2E1F9DD456}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{94665500-3FDD-49F7-A139-8B74E6AD45CB}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{CA9B6329-3094-4A91-9625-F126304A7DB7}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{ADBFE003-9712-423C-BD35-8D112DC76817}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{8A32375F-A657-402D-B066-3BD26D405BBA}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{C3A16BC4-4ED8-45C8-A71E-37F6E1FD5ECC}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{1FB7C022-6C41-4D2C-97EA-77AD9EFE0626}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{D56F0EC1-E42C-4CB4-8416-967B57D6920C}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{FBA4FFEA-2CBC-4BEB-8E86-DFAC867011FC}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{9414C4F6-6F45-4F06-97B9-7FF0A29E3B17}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{F552F27B-F83D-4E66-9900-058782325D43}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{E3E55F8F-F5D9-4163-B84B-D2216C18AE2F}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{16595328-E0FF-439E-AE8C-0DCAF763EA52}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{2206CC72-0F0D-4D18-BABE-82C0218FC0FA}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{082818AB-5F48-4686-B412-72FE01C0CF07}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{A573F687-F57E-493F-8A3B-5C4A05059535}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{DC7DE166-BFAB-47E8-B96E-EDD47D83A8D1}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{779C8AA0-3A00-4145-B886-D4BBCC29095B}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{489FED45-336D-42E5-8A04-16060DD81383}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{F527B165-991A-4CD5-AD0C-20E341EF27C7}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{E85E9E08-F609-4345-A960-2C0316B98CB5}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{13141EB7-707A-4D73-9CD0-7DC80E254C36}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{3069B5FD-D4D4-451B-9D4D-7AF5CCF1753E}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{EED905A0-97F4-4491-94CA-70D8363BDAD9}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{E26310E7-215D-4886-A700-4F9180C4074C}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{8820C258-A43B-4E59-8B88-ECEFE332B8C8}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{0504B009-9777-4CF1-87C7-42D5F864B212}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{4EDF0160-C435-42A4-898F-364C8F07E156}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{4593C903-33EC-4679-B4A2-CF104CD06BE3}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{E3816943-0E68-4F50-B827-21482A419622}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{D9410EC2-63FC-4343-831F-F82F36277D86}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{1003FCBE-69D4-4930-9686-1A4A3A594B39}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{936AF828-7984-488D-AD13-B7CA2D295D93}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{B7650337-BEF7-4EE9-AA2C-6B2D992BF17B}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{59FD4794-B501-4B0E-AE54-9DC87F6FF634}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{E44DE94B-8DA2-4A1A-A390-B2B705322851}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{7895E871-4744-4E6D-931E-2A3CA3315604}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{D37D8E31-EC85-4D6B-8C83-D94A54F8DEF3}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{097EDCA6-ECA0-49A5-AA0E-7C000F3E9B15}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{23B8162A-2B3F-436F-8161-89BED2A6FABB}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{0CC00615-787B-4BFE-B8F4-6050154FEEA6}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{F0B7C399-B313-4950-BCBD-6711FB6E5E68}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{4B43FE61-77C0-4858-8370-CAAB1757D886}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{EA752DE9-384F-4C4D-AB72-607B1842744B}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{C0871E53-BB35-4395-8CD8-F057377398B8}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{EA256B6F-A3E5-469D-AFD2-7117FB08B07A}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{CD0D6E24-A0C0-4169-8ECA-682DA55012D4}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{17D66856-9B81-4A8C-8C54-07026872C785}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{9D786380-B6D4-4FD6-B471-A5ABF528CBA8}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{6FCC88F2-450F-414B-BE05-0C8FE33344F0}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{3FC63FB4-8D88-4440-88D8-A25BF31E2844}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{620F8FDB-7CDF-440D-BC89-494180828D7F}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{53B44FEC-71BA-4991-8A69-9A0995A8F8C9}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{E7E64B09-C391-44C0-8439-91D5C3BEAE0C}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{7393F8CE-6587-4F5D-B281-4ABAE15C9560}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{DDA3B6A4-583E-4847-A938-A8780A1B3F5F}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{9E3A6212-AAA0-4EBB-8834-D269AA6F834A}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{CC1277D8-9807-4B8B-A5A0-067E78E3BC68}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{F4BB4D7F-99ED-48AB-9BD1-AE1F34A51827}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{7DAF5A3C-F50A-4672-AC99-624322BB0BF0}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{873B34D8-C846-46FC-A094-3A2AF5A4A10A}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{4005D4A2-9E0D-41D3-8508-4964348B1ED5}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{922CC106-FCB5-43A6-9FFA-93C60E2165B0}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{2B0DBB40-A7C6-4603-ACD2-D6011FD15E52}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{5BF79C6A-9041-422F-967B-E688A7D6EFA4}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{ACDDC562-893D-43CE-99C1-480BCC8CA391}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{ADA62818-A22E-40D5-AA7E-D39AFD8C75FE}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{8CCDF251-4FCF-40D9-BF96-1F0AB6EA96C8}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{27E6968E-0216-49DD-B843-2EC12D8415D1}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{83A00376-82B0-4E40-ACB2-8F2A68424595}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{51189C9C-D473-481D-AFA7-D233B308DC58}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{03FDC372-6839-4814-BE80-7D03C647FC78}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{99D74283-4C15-495D-970A-D7777FBC3071}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{5E556C80-40BA-469F-82B4-854C6B57D1E6}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{6E4DC423-BE86-4895-A3F1-9C4C96A73315}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{EF63886F-0674-454B-9C9B-B96A280ED968}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{34D13CFD-41A8-460D-BBAA-DFE459FA6F47}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{2A967124-33B5-45C8-9505-DB295A4DC61F}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{D042307C-CC55-4704-9D34-6281209BC1A8}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{32973A1A-1FDE-45A1-93B4-D224E69BB0E2}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{C974C0A1-39CD-4993-8399-F99D4B4B7128}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{F10C8234-A353-45C7-8E5A-C5FA5DD06DF2}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{E17656A9-BAD7-4B02-BEFD-0AEF6CC82414}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{16233607-A922-4A40-B51D-DC1BF354BCC0}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{5761E103-393C-46FC-89C8-F24E65136B04}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{9F49F44C-0590-4C38-893A-EBE4685562F8}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{B14EE9A8-A074-4D1A-B4F0-BFDFDCB0CDB8}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{EB6D3944-0FC6-43CB-81B1-17E54EF11317}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{4F62F70B-5FAA-418E-940D-1854115AEB1A}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{FDF613C5-501C-4670-AD4A-F959A28C9063}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{219BFAA9-6F86-45B7-95E6-4B8646F49FAF}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{F1377ACA-F6FC-477E-9923-1BC7F2F170EA}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{1BB9FEF3-CC69-46F0-8B99-7DF1D9B57258}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{290EF861-2BC1-4857-BE7B-C11FCD49F561}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{D14E2411-3479-42CB-8944-14F4B6A978E8}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{255CE105-ACAA-4B0C-A51A-0C8AEDAF6F7D}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{C613D29B-1E1C-402E-ABED-53D791694242}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{3EDA2FAD-0E97-4764-BA1E-5C1B74EB9DDB}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{A33650EC-DF33-4834-9E82-BC8313841A2F}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{C2B9CCA4-E8C4-41E7-8276-F7280EA996CC}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{31E29021-D686-4102-9D35-BEAEF8811808}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{6E10084A-B1F3-4D86-8A9E-58AEC7A82F43}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{B9DE7248-B971-41CF-ABF6-B12B6D941B17}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{614D523B-E189-44EF-81CD-A68ED64B5428}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{9F54CE7A-3782-4062-AFE1-28F78AD9B931}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{18F608D0-1598-4637-BDE2-A3CD1CC10F4A}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{ABC380D4-EE37-4E37-B1F2-7690E61A7825}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{1718F763-AC04-489E-9A67-2F5699ED054C}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{19ABC2E3-632A-4CF7-A8CA-D71592497453}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{C9035FAA-2C86-4960-99D8-5AFED18ED21D}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{7325E202-3EA6-432F-BD41-1E31E07A45FA}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{EEB55BE4-EBBC-46D6-9D70-5A68C825B7D0}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{F4CC1BD1-6496-4488-A907-FD50303322FF}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{701A9776-D792-4817-ACCB-6EB6144F7FA1}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{88D6A74B-EF4E-4527-BD7C-91726204BF09}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{269AFD64-7B05-484F-B279-8B268A66B5B0}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{D65F0115-F2DB-4161-9750-7DDDD3D6ECD9}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{18443482-81E5-4A45-81E0-CED170224182}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{B81CE299-C1E8-4A66-8DAA-5E1D554267C2}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{4AE2DC47-174A-47CF-AB70-02FB88EFEC00}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{D5F6515D-E9EA-4E14-8AA1-7757FA7C4413}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{65C81D18-55C3-46F6-BA19-F5D386B10837}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{AEEFE65A-30B9-4063-997F-38E419DB9AA6}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{51075F44-76CF-427D-9F0B-DE1F5D3E7BB8}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{6C19BD9F-90CA-423F-9171-52CE6C41B763}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{0DF3104C-A993-40E9-9740-C7BCD6BA2E15}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{76BFDCCB-18FF-4D74-9F32-5958E545E03E}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{5C1F18F2-BA70-4998-BA17-588A7D7C7AE0}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{E456FFB1-E884-44BC-A5ED-B0A2214A9110}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{E31FFF4E-999C-4FB7-BDEE-E7E2ED180D57}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{9D2BC4CE-A600-415F-B7A4-1FE59BD9D955}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{269E1008-6DBB-489E-AB6F-0831E5DDFF80}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{7CD49654-A7B4-47C3-8CDB-F3E2E792DE2E}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{DB3C6535-A16B-4866-A459-D066A51B8446}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{25EC7201-7D13-4E91-99BC-6576D214F39E}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{33BF175C-5338-4B44-92BF-6A2380100A00}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{F6B88F57-8553-45ED-94E4-D0E35564E87F}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{E39506AF-D28B-473C-BBC5-8C647A787B46}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{F9BFF803-B1FF-44D4-BEA0-E1BE041F3EFE}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{A34E91B4-5839-4E03-B2D3-BAE9B0EE6250}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{E152E444-3427-40DB-9D26-DCB2C5A98719}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{54A417AA-33B2-419C-8FB4-EB9EDAAFCA12}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{EAA0460F-5F25-40EF-923A-C273FA44D089}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{D150B4BB-123B-4988-BB7F-3E07BDBFE915}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{2B6DAC69-E9B2-4FD1-9589-367BD2BCFE38}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{ED5381D4-8EC3-41A7-946F-DF64080B496F}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{2A03735F-9B79-4BB7-A452-70DECABE2D38}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{CBAB3FE1-518A-4282-9418-CBE628286AAB}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{51A9F848-467B-4B8E-B596-242CE2A0108E}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{AD68CB5A-0128-49D4-B8C3-E85BD341767D}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{FEBC25D2-0DA3-4979-8B56-52387418485B}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{3A734DAC-0A25-4BE2-8138-10AA104BBAEE}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{0BC3C86E-995B-454B-8BD9-6AE33D68F065}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{65824BFA-7B52-48A4-B7BA-ADF94DB945C5}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{8F671504-CD90-4EEB-B99D-1E8B7FC60BA1}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{A554C016-427A-4D78-8C90-6E9634A4F971}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{8A9F3DB3-75D1-40D7-96A8-E3F357505DFD}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{C6864B38-A17D-430A-9FE0-C7C67D9F3BF1}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{2A874A82-45EC-4FAA-B55E-BD4045C2774C}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{79982EDD-052D-4D11-B50A-7CF65AD823A3}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{F13C8D75-20E3-4961-85B2-789C6D903885}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{FA7B1D79-ECE1-4DFC-8565-F8012B9FB2C9}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{F37C3E52-A150-4A78-8E44-3FFDF19DF68E}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{2FB508A8-E17B-49ED-B981-C985676D6E95}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{D2180B74-139D-4416-BB3D-6925A00B4B13}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{4E9FC1F1-DA29-49EB-977E-A356826A3B10}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{C0311EF8-3D12-4857-B469-A763C4034362}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{1699FE4C-195E-4D93-ACA8-9326B1E18E8C}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{A4E3A497-7D02-4251-9C5A-6BC2E3AE2F43}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{A45E2B5C-A3E6-4C44-BBD3-CECDE9E16A6E}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{88A5998E-1DE9-4E65-A955-ECF7B6506310}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{174C44E3-8B42-499A-BCED-89BC735E72B6}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{FDEC4BA1-0986-4D7B-BAAB-B9D6A2C47684}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{06395827-4A9E-40F3-BD44-8B803A5FE2A4}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{5A59568A-1AFD-4747-9A5E-5FA2922D43F0}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{1D9BDF98-2031-4D9A-8407-385BF8FE7C3C}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{DE216D5B-A0BC-4750-892D-CB34C4629FBB}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{37E8E0E5-0BB5-45DE-A523-CC7A7C48E55A}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{D99F55C6-8037-4C84-B152-018DF943D651}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{EDBC1C30-F069-4683-93E3-A076A37D2AB5}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{40BB4F4E-05EF-4ED7-9E8D-0AE312EAB71F}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{3AFBDDC3-9930-49A3-8648-D8C192D5B4DB}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -28688,22 +28691,22 @@
         <v>0.666666666666667</v>
       </c>
       <c r="C498" s="29">
-        <v>0</v>
-      </c>
-      <c r="D498" s="30" t="s">
+        <v>0.875</v>
+      </c>
+      <c r="D498" s="30">
+        <v>1080801266</v>
+      </c>
+      <c r="E498" s="16">
+        <v>10332461</v>
+      </c>
+      <c r="F498" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="E498" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F498" s="30" t="s">
-        <v>510</v>
-      </c>
       <c r="G498" s="30" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="H498" s="30" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="I498" s="20"/>
       <c r="J498" s="19"/>
@@ -28766,29 +28769,17 @@
       <c r="AF499" s="18"/>
       <c r="AG499" s="18"/>
     </row>
-    <row r="500" ht="48.75" customHeight="1" spans="1:33">
-      <c r="A500" s="6"/>
-      <c r="B500" s="29">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C500" s="29">
-        <v>0.875</v>
-      </c>
-      <c r="D500" s="30">
-        <v>1080801266</v>
-      </c>
-      <c r="E500" s="16">
-        <v>10332461</v>
-      </c>
-      <c r="F500" s="30" t="s">
-        <v>511</v>
-      </c>
-      <c r="G500" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H500" s="30" t="s">
-        <v>161</v>
-      </c>
+    <row r="500" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A500" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="B500" s="10"/>
+      <c r="C500" s="10"/>
+      <c r="D500" s="10"/>
+      <c r="E500" s="11"/>
+      <c r="F500" s="10"/>
+      <c r="G500" s="10"/>
+      <c r="H500" s="10"/>
       <c r="I500" s="20"/>
       <c r="J500" s="19"/>
       <c r="K500" s="18"/>
@@ -28815,15 +28806,29 @@
       <c r="AF500" s="18"/>
       <c r="AG500" s="18"/>
     </row>
-    <row r="501" ht="48.75" customHeight="1" spans="1:33">
-      <c r="A501" s="6"/>
-      <c r="B501" s="29"/>
-      <c r="C501" s="29"/>
-      <c r="D501" s="30"/>
-      <c r="E501" s="16"/>
-      <c r="F501" s="30"/>
-      <c r="G501" s="30"/>
-      <c r="H501" s="30"/>
+    <row r="501" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A501" s="12"/>
+      <c r="B501" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C501" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D501" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E501" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F501" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G501" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H501" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I501" s="20"/>
       <c r="J501" s="19"/>
       <c r="K501" s="18"/>
@@ -28850,17 +28855,15 @@
       <c r="AF501" s="18"/>
       <c r="AG501" s="18"/>
     </row>
-    <row r="502" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A502" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="B502" s="10"/>
-      <c r="C502" s="10"/>
-      <c r="D502" s="10"/>
-      <c r="E502" s="11"/>
-      <c r="F502" s="10"/>
-      <c r="G502" s="10"/>
-      <c r="H502" s="10"/>
+    <row r="502" ht="43.15" customHeight="1" spans="1:33">
+      <c r="A502" s="6"/>
+      <c r="B502" s="14"/>
+      <c r="C502" s="14"/>
+      <c r="D502" s="15"/>
+      <c r="E502" s="16"/>
+      <c r="F502" s="15"/>
+      <c r="G502" s="15"/>
+      <c r="H502" s="15"/>
       <c r="I502" s="20"/>
       <c r="J502" s="19"/>
       <c r="K502" s="18"/>
@@ -28887,28 +28890,28 @@
       <c r="AF502" s="18"/>
       <c r="AG502" s="18"/>
     </row>
-    <row r="503" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A503" s="12"/>
-      <c r="B503" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C503" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D503" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E503" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F503" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G503" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H503" s="8" t="s">
-        <v>6</v>
+    <row r="503" ht="43.15" customHeight="1" spans="1:33">
+      <c r="A503" s="6"/>
+      <c r="B503" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C503" s="14">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D503" s="15">
+        <v>1091247732</v>
+      </c>
+      <c r="E503" s="16">
+        <v>10333432</v>
+      </c>
+      <c r="F503" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="G503" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H503" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="I503" s="20"/>
       <c r="J503" s="19"/>
@@ -28980,19 +28983,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D505" s="15">
-        <v>1091247732</v>
-      </c>
-      <c r="E505" s="16">
-        <v>10333432</v>
+        <v>1066926193</v>
+      </c>
+      <c r="E505" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="F505" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G505" s="15" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H505" s="15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I505" s="20"/>
       <c r="J505" s="19"/>
@@ -29022,13 +29025,27 @@
     </row>
     <row r="506" ht="43.15" customHeight="1" spans="1:33">
       <c r="A506" s="6"/>
-      <c r="B506" s="14"/>
-      <c r="C506" s="14"/>
-      <c r="D506" s="15"/>
-      <c r="E506" s="16"/>
-      <c r="F506" s="15"/>
-      <c r="G506" s="15"/>
-      <c r="H506" s="15"/>
+      <c r="B506" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C506" s="14">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D506" s="15">
+        <v>1112368038</v>
+      </c>
+      <c r="E506" s="16">
+        <v>10273387</v>
+      </c>
+      <c r="F506" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="G506" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H506" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="I506" s="20"/>
       <c r="J506" s="19"/>
       <c r="K506" s="18"/>
@@ -29064,10 +29081,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D507" s="15">
-        <v>1066926193</v>
-      </c>
-      <c r="E507" s="16" t="s">
-        <v>222</v>
+        <v>1204716664</v>
+      </c>
+      <c r="E507" s="16">
+        <v>10334828</v>
       </c>
       <c r="F507" s="15" t="s">
         <v>513</v>
@@ -29076,7 +29093,7 @@
         <v>20</v>
       </c>
       <c r="H507" s="15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I507" s="20"/>
       <c r="J507" s="19"/>
@@ -29113,10 +29130,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D508" s="15">
-        <v>1112368038</v>
+        <v>1110081480</v>
       </c>
       <c r="E508" s="16">
-        <v>10273387</v>
+        <v>10335056</v>
       </c>
       <c r="F508" s="15" t="s">
         <v>514</v>
@@ -29162,10 +29179,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D509" s="15">
-        <v>1204716664</v>
+        <v>1156350683</v>
       </c>
       <c r="E509" s="16">
-        <v>10334828</v>
+        <v>10282852</v>
       </c>
       <c r="F509" s="15" t="s">
         <v>515</v>
@@ -29174,7 +29191,7 @@
         <v>20</v>
       </c>
       <c r="H509" s="15" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I509" s="20"/>
       <c r="J509" s="19"/>
@@ -29204,27 +29221,13 @@
     </row>
     <row r="510" ht="43.15" customHeight="1" spans="1:33">
       <c r="A510" s="6"/>
-      <c r="B510" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C510" s="14">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="D510" s="15">
-        <v>1110081480</v>
-      </c>
-      <c r="E510" s="16">
-        <v>10335056</v>
-      </c>
-      <c r="F510" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="G510" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H510" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="B510" s="14"/>
+      <c r="C510" s="14"/>
+      <c r="D510" s="15"/>
+      <c r="E510" s="16"/>
+      <c r="F510" s="15"/>
+      <c r="G510" s="15"/>
+      <c r="H510" s="15"/>
       <c r="I510" s="20"/>
       <c r="J510" s="19"/>
       <c r="K510" s="18"/>
@@ -29260,19 +29263,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D511" s="15">
-        <v>1156350683</v>
+        <v>1098346978</v>
       </c>
       <c r="E511" s="16">
-        <v>10282852</v>
+        <v>10335066</v>
       </c>
       <c r="F511" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G511" s="15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H511" s="15" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I511" s="20"/>
       <c r="J511" s="19"/>
@@ -29344,19 +29347,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D513" s="15">
-        <v>1098346978</v>
-      </c>
-      <c r="E513" s="16">
-        <v>10335066</v>
+        <v>1012981220</v>
+      </c>
+      <c r="E513" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="F513" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G513" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H513" s="15" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I513" s="20"/>
       <c r="J513" s="19"/>
@@ -29386,13 +29389,27 @@
     </row>
     <row r="514" ht="43.15" customHeight="1" spans="1:33">
       <c r="A514" s="6"/>
-      <c r="B514" s="14"/>
-      <c r="C514" s="14"/>
-      <c r="D514" s="15"/>
-      <c r="E514" s="16"/>
-      <c r="F514" s="15"/>
-      <c r="G514" s="15"/>
-      <c r="H514" s="15"/>
+      <c r="B514" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C514" s="14">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D514" s="15">
+        <v>1125744467</v>
+      </c>
+      <c r="E514" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F514" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="G514" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H514" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="I514" s="20"/>
       <c r="J514" s="19"/>
       <c r="K514" s="18"/>
@@ -29428,7 +29445,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D515" s="15">
-        <v>1012981220</v>
+        <v>1154913448</v>
       </c>
       <c r="E515" s="16" t="s">
         <v>222</v>
@@ -29477,10 +29494,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D516" s="15">
-        <v>1125744467</v>
-      </c>
-      <c r="E516" s="16" t="s">
-        <v>222</v>
+        <v>1090712285</v>
+      </c>
+      <c r="E516" s="16">
+        <v>10332517</v>
       </c>
       <c r="F516" s="15" t="s">
         <v>520</v>
@@ -29526,10 +29543,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D517" s="15">
-        <v>1154913448</v>
-      </c>
-      <c r="E517" s="16" t="s">
-        <v>222</v>
+        <v>1146458829</v>
+      </c>
+      <c r="E517" s="16">
+        <v>10334744</v>
       </c>
       <c r="F517" s="15" t="s">
         <v>521</v>
@@ -29568,27 +29585,13 @@
     </row>
     <row r="518" ht="43.15" customHeight="1" spans="1:33">
       <c r="A518" s="6"/>
-      <c r="B518" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C518" s="14">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="D518" s="15">
-        <v>1090712285</v>
-      </c>
-      <c r="E518" s="16">
-        <v>10332517</v>
-      </c>
-      <c r="F518" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="G518" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H518" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="B518" s="14"/>
+      <c r="C518" s="14"/>
+      <c r="D518" s="15"/>
+      <c r="E518" s="16"/>
+      <c r="F518" s="15"/>
+      <c r="G518" s="15"/>
+      <c r="H518" s="15"/>
       <c r="I518" s="20"/>
       <c r="J518" s="19"/>
       <c r="K518" s="18"/>
@@ -29624,19 +29627,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D519" s="15">
-        <v>1146458829</v>
+        <v>1551378712</v>
       </c>
       <c r="E519" s="16">
-        <v>10334744</v>
+        <v>10281254</v>
       </c>
       <c r="F519" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G519" s="15" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="H519" s="15" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="I519" s="20"/>
       <c r="J519" s="19"/>
@@ -29666,13 +29669,27 @@
     </row>
     <row r="520" ht="43.15" customHeight="1" spans="1:33">
       <c r="A520" s="6"/>
-      <c r="B520" s="14"/>
-      <c r="C520" s="14"/>
-      <c r="D520" s="15"/>
-      <c r="E520" s="16"/>
-      <c r="F520" s="15"/>
-      <c r="G520" s="15"/>
-      <c r="H520" s="15"/>
+      <c r="B520" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C520" s="14">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D520" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="E520" s="16">
+        <v>10334790</v>
+      </c>
+      <c r="F520" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="G520" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H520" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="I520" s="20"/>
       <c r="J520" s="19"/>
       <c r="K520" s="18"/>
@@ -29701,27 +29718,13 @@
     </row>
     <row r="521" ht="43.15" customHeight="1" spans="1:33">
       <c r="A521" s="6"/>
-      <c r="B521" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C521" s="14">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="D521" s="15">
-        <v>1551378712</v>
-      </c>
-      <c r="E521" s="16">
-        <v>10281254</v>
-      </c>
-      <c r="F521" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="G521" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H521" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="B521" s="14"/>
+      <c r="C521" s="14"/>
+      <c r="D521" s="15"/>
+      <c r="E521" s="16"/>
+      <c r="F521" s="15"/>
+      <c r="G521" s="15"/>
+      <c r="H521" s="15"/>
       <c r="I521" s="20"/>
       <c r="J521" s="19"/>
       <c r="K521" s="18"/>
@@ -29756,20 +29759,20 @@
       <c r="C522" s="14">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D522" s="15" t="s">
+      <c r="D522" s="15">
+        <v>1097762201</v>
+      </c>
+      <c r="E522" s="16">
+        <v>10326498</v>
+      </c>
+      <c r="F522" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="E522" s="16">
-        <v>10334790</v>
-      </c>
-      <c r="F522" s="15" t="s">
-        <v>526</v>
-      </c>
       <c r="G522" s="15" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="H522" s="15" t="s">
-        <v>105</v>
+        <v>442</v>
       </c>
       <c r="I522" s="20"/>
       <c r="J522" s="19"/>
@@ -29841,19 +29844,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D524" s="15">
-        <v>1097762201</v>
-      </c>
-      <c r="E524" s="16">
-        <v>10326498</v>
+        <v>1090305240</v>
+      </c>
+      <c r="E524" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="F524" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G524" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H524" s="15" t="s">
-        <v>442</v>
+        <v>287</v>
       </c>
       <c r="I524" s="20"/>
       <c r="J524" s="19"/>
@@ -29883,13 +29886,27 @@
     </row>
     <row r="525" ht="43.15" customHeight="1" spans="1:33">
       <c r="A525" s="6"/>
-      <c r="B525" s="14"/>
-      <c r="C525" s="14"/>
-      <c r="D525" s="15"/>
-      <c r="E525" s="16"/>
-      <c r="F525" s="15"/>
-      <c r="G525" s="15"/>
-      <c r="H525" s="15"/>
+      <c r="B525" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C525" s="14">
+        <v>1.08333333333333</v>
+      </c>
+      <c r="D525" s="15">
+        <v>1090527572</v>
+      </c>
+      <c r="E525" s="16">
+        <v>10318910</v>
+      </c>
+      <c r="F525" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="G525" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H525" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="I525" s="20"/>
       <c r="J525" s="19"/>
       <c r="K525" s="18"/>
@@ -29924,20 +29941,20 @@
       <c r="C526" s="14">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D526" s="15">
-        <v>1090305240</v>
-      </c>
-      <c r="E526" s="16" t="s">
-        <v>222</v>
+      <c r="D526" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="E526" s="16">
+        <v>10333437</v>
       </c>
       <c r="F526" s="15" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G526" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H526" s="15" t="s">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="I526" s="20"/>
       <c r="J526" s="19"/>
@@ -29967,27 +29984,13 @@
     </row>
     <row r="527" ht="43.15" customHeight="1" spans="1:33">
       <c r="A527" s="6"/>
-      <c r="B527" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C527" s="14">
-        <v>1.08333333333333</v>
-      </c>
-      <c r="D527" s="15">
-        <v>1090527572</v>
-      </c>
-      <c r="E527" s="16">
-        <v>10318910</v>
-      </c>
-      <c r="F527" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="G527" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H527" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="B527" s="14"/>
+      <c r="C527" s="14"/>
+      <c r="D527" s="15"/>
+      <c r="E527" s="16"/>
+      <c r="F527" s="15"/>
+      <c r="G527" s="15"/>
+      <c r="H527" s="15"/>
       <c r="I527" s="20"/>
       <c r="J527" s="19"/>
       <c r="K527" s="18"/>
@@ -30022,20 +30025,20 @@
       <c r="C528" s="14">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D528" s="15" t="s">
+      <c r="D528" s="15">
+        <v>1070869955</v>
+      </c>
+      <c r="E528" s="16">
+        <v>10334381</v>
+      </c>
+      <c r="F528" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="E528" s="16">
-        <v>10333437</v>
-      </c>
-      <c r="F528" s="15" t="s">
-        <v>531</v>
-      </c>
       <c r="G528" s="15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H528" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I528" s="20"/>
       <c r="J528" s="19"/>
@@ -30107,19 +30110,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D530" s="15">
-        <v>1070869955</v>
-      </c>
-      <c r="E530" s="16">
-        <v>10334381</v>
+        <v>1155799964</v>
+      </c>
+      <c r="E530" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="F530" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G530" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H530" s="15" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="I530" s="20"/>
       <c r="J530" s="19"/>
@@ -30149,13 +30152,27 @@
     </row>
     <row r="531" ht="43.15" customHeight="1" spans="1:33">
       <c r="A531" s="6"/>
-      <c r="B531" s="14"/>
-      <c r="C531" s="14"/>
-      <c r="D531" s="15"/>
-      <c r="E531" s="16"/>
-      <c r="F531" s="15"/>
-      <c r="G531" s="15"/>
-      <c r="H531" s="15"/>
+      <c r="B531" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C531" s="14">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D531" s="15">
+        <v>1283104485</v>
+      </c>
+      <c r="E531" s="16">
+        <v>10332548</v>
+      </c>
+      <c r="F531" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="G531" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H531" s="15" t="s">
+        <v>157</v>
+      </c>
       <c r="I531" s="20"/>
       <c r="J531" s="19"/>
       <c r="K531" s="18"/>
@@ -30191,10 +30208,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D532" s="15">
-        <v>1155799964</v>
-      </c>
-      <c r="E532" s="16" t="s">
-        <v>222</v>
+        <v>1550184789</v>
+      </c>
+      <c r="E532" s="16">
+        <v>10335058</v>
       </c>
       <c r="F532" s="15" t="s">
         <v>533</v>
@@ -30203,7 +30220,7 @@
         <v>53</v>
       </c>
       <c r="H532" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I532" s="20"/>
       <c r="J532" s="19"/>
@@ -30233,27 +30250,13 @@
     </row>
     <row r="533" ht="43.15" customHeight="1" spans="1:33">
       <c r="A533" s="6"/>
-      <c r="B533" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C533" s="14">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="D533" s="15">
-        <v>1283104485</v>
-      </c>
-      <c r="E533" s="16">
-        <v>10332548</v>
-      </c>
-      <c r="F533" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="G533" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H533" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="B533" s="14"/>
+      <c r="C533" s="14"/>
+      <c r="D533" s="15"/>
+      <c r="E533" s="16"/>
+      <c r="F533" s="15"/>
+      <c r="G533" s="15"/>
+      <c r="H533" s="15"/>
       <c r="I533" s="20"/>
       <c r="J533" s="19"/>
       <c r="K533" s="18"/>
@@ -30289,19 +30292,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D534" s="15">
-        <v>1550184789</v>
-      </c>
-      <c r="E534" s="16">
-        <v>10335058</v>
+        <v>1030294228</v>
+      </c>
+      <c r="E534" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="F534" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G534" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H534" s="15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I534" s="20"/>
       <c r="J534" s="19"/>
@@ -30331,13 +30334,27 @@
     </row>
     <row r="535" ht="43.15" customHeight="1" spans="1:33">
       <c r="A535" s="6"/>
-      <c r="B535" s="14"/>
-      <c r="C535" s="14"/>
-      <c r="D535" s="15"/>
-      <c r="E535" s="16"/>
-      <c r="F535" s="15"/>
-      <c r="G535" s="15"/>
-      <c r="H535" s="15"/>
+      <c r="B535" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C535" s="14">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D535" s="15">
+        <v>1001596418</v>
+      </c>
+      <c r="E535" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F535" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="G535" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H535" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="I535" s="20"/>
       <c r="J535" s="19"/>
       <c r="K535" s="18"/>
@@ -30372,20 +30389,20 @@
       <c r="C536" s="14">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D536" s="15">
-        <v>1030294228</v>
-      </c>
-      <c r="E536" s="16" t="s">
-        <v>222</v>
+      <c r="D536" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="E536" s="16">
+        <v>10326502</v>
       </c>
       <c r="F536" s="15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G536" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H536" s="15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I536" s="20"/>
       <c r="J536" s="19"/>
@@ -30422,19 +30439,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D537" s="15">
-        <v>1001596418</v>
-      </c>
-      <c r="E537" s="16" t="s">
-        <v>222</v>
+        <v>1028515847</v>
+      </c>
+      <c r="E537" s="16">
+        <v>10334451</v>
       </c>
       <c r="F537" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G537" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H537" s="15" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="I537" s="20"/>
       <c r="J537" s="19"/>
@@ -30470,11 +30487,11 @@
       <c r="C538" s="14">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D538" s="15" t="s">
-        <v>538</v>
+      <c r="D538" s="15">
+        <v>1142757572</v>
       </c>
       <c r="E538" s="16">
-        <v>10326502</v>
+        <v>10334398</v>
       </c>
       <c r="F538" s="15" t="s">
         <v>539</v>
@@ -30483,7 +30500,7 @@
         <v>56</v>
       </c>
       <c r="H538" s="15" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="I538" s="20"/>
       <c r="J538" s="19"/>
@@ -30520,10 +30537,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D539" s="15">
-        <v>1028515847</v>
+        <v>0</v>
       </c>
       <c r="E539" s="16">
-        <v>10334451</v>
+        <v>10334359</v>
       </c>
       <c r="F539" s="15" t="s">
         <v>540</v>
@@ -30532,7 +30549,7 @@
         <v>56</v>
       </c>
       <c r="H539" s="15" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="I539" s="20"/>
       <c r="J539" s="19"/>
@@ -30568,14 +30585,14 @@
       <c r="C540" s="14">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D540" s="15">
-        <v>1142757572</v>
+      <c r="D540" s="15" t="s">
+        <v>541</v>
       </c>
       <c r="E540" s="16">
-        <v>10334398</v>
+        <v>10334465</v>
       </c>
       <c r="F540" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G540" s="15" t="s">
         <v>56</v>
@@ -30621,10 +30638,10 @@
         <v>0</v>
       </c>
       <c r="E541" s="16">
-        <v>10334359</v>
+        <v>10334469</v>
       </c>
       <c r="F541" s="15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G541" s="15" t="s">
         <v>56</v>
@@ -30666,11 +30683,11 @@
       <c r="C542" s="14">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D542" s="15" t="s">
-        <v>543</v>
+      <c r="D542" s="15">
+        <v>1017405291</v>
       </c>
       <c r="E542" s="16">
-        <v>10334465</v>
+        <v>10335052</v>
       </c>
       <c r="F542" s="15" t="s">
         <v>544</v>
@@ -30679,7 +30696,7 @@
         <v>56</v>
       </c>
       <c r="H542" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I542" s="20"/>
       <c r="J542" s="19"/>
@@ -30709,27 +30726,13 @@
     </row>
     <row r="543" ht="43.15" customHeight="1" spans="1:33">
       <c r="A543" s="6"/>
-      <c r="B543" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C543" s="14">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="D543" s="15">
-        <v>0</v>
-      </c>
-      <c r="E543" s="16">
-        <v>10334469</v>
-      </c>
-      <c r="F543" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="G543" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H543" s="15" t="s">
-        <v>177</v>
-      </c>
+      <c r="B543" s="14"/>
+      <c r="C543" s="14"/>
+      <c r="D543" s="15"/>
+      <c r="E543" s="16"/>
+      <c r="F543" s="15"/>
+      <c r="G543" s="15"/>
+      <c r="H543" s="15"/>
       <c r="I543" s="20"/>
       <c r="J543" s="19"/>
       <c r="K543" s="18"/>
@@ -30765,19 +30768,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D544" s="15">
-        <v>1017405291</v>
+        <v>1021111708</v>
       </c>
       <c r="E544" s="16">
-        <v>10335052</v>
+        <v>10314749</v>
       </c>
       <c r="F544" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G544" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H544" s="15" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="I544" s="20"/>
       <c r="J544" s="19"/>
@@ -30807,13 +30810,27 @@
     </row>
     <row r="545" ht="43.15" customHeight="1" spans="1:33">
       <c r="A545" s="6"/>
-      <c r="B545" s="14"/>
-      <c r="C545" s="14"/>
-      <c r="D545" s="15"/>
-      <c r="E545" s="16"/>
-      <c r="F545" s="15"/>
-      <c r="G545" s="15"/>
-      <c r="H545" s="15"/>
+      <c r="B545" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C545" s="14">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D545" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="E545" s="16">
+        <v>10333435</v>
+      </c>
+      <c r="F545" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="G545" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H545" s="15" t="s">
+        <v>364</v>
+      </c>
       <c r="I545" s="20"/>
       <c r="J545" s="19"/>
       <c r="K545" s="18"/>
@@ -30849,13 +30866,13 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D546" s="15">
-        <v>1021111708</v>
+        <v>1069956703</v>
       </c>
       <c r="E546" s="16">
-        <v>10314749</v>
+        <v>10330637</v>
       </c>
       <c r="F546" s="15" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G546" s="15" t="s">
         <v>61</v>
@@ -30897,11 +30914,11 @@
       <c r="C547" s="14">
         <v>0.0833333333333333</v>
       </c>
-      <c r="D547" s="15" t="s">
-        <v>548</v>
+      <c r="D547" s="15">
+        <v>1005741195</v>
       </c>
       <c r="E547" s="16">
-        <v>10333435</v>
+        <v>10335060</v>
       </c>
       <c r="F547" s="15" t="s">
         <v>549</v>
@@ -30947,10 +30964,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D548" s="15">
-        <v>1069956703</v>
+        <v>1090188323</v>
       </c>
       <c r="E548" s="16">
-        <v>10330637</v>
+        <v>10312258</v>
       </c>
       <c r="F548" s="15" t="s">
         <v>550</v>
@@ -30989,27 +31006,13 @@
     </row>
     <row r="549" ht="43.15" customHeight="1" spans="1:33">
       <c r="A549" s="6"/>
-      <c r="B549" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C549" s="14">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="D549" s="15">
-        <v>1005741195</v>
-      </c>
-      <c r="E549" s="16">
-        <v>10335060</v>
-      </c>
-      <c r="F549" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="G549" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H549" s="15" t="s">
-        <v>364</v>
-      </c>
+      <c r="B549" s="14"/>
+      <c r="C549" s="14"/>
+      <c r="D549" s="15"/>
+      <c r="E549" s="16"/>
+      <c r="F549" s="15"/>
+      <c r="G549" s="15"/>
+      <c r="H549" s="15"/>
       <c r="I549" s="20"/>
       <c r="J549" s="19"/>
       <c r="K549" s="18"/>
@@ -31045,19 +31048,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D550" s="15">
-        <v>1090188323</v>
+        <v>1142634858</v>
       </c>
       <c r="E550" s="16">
-        <v>10312258</v>
+        <v>10334475</v>
       </c>
       <c r="F550" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G550" s="15" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="H550" s="15" t="s">
-        <v>364</v>
+        <v>198</v>
       </c>
       <c r="I550" s="20"/>
       <c r="J550" s="19"/>
@@ -31087,13 +31090,27 @@
     </row>
     <row r="551" ht="43.15" customHeight="1" spans="1:33">
       <c r="A551" s="6"/>
-      <c r="B551" s="14"/>
-      <c r="C551" s="14"/>
-      <c r="D551" s="15"/>
-      <c r="E551" s="16"/>
-      <c r="F551" s="15"/>
-      <c r="G551" s="15"/>
-      <c r="H551" s="15"/>
+      <c r="B551" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C551" s="14">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D551" s="15">
+        <v>1010537767</v>
+      </c>
+      <c r="E551" s="16">
+        <v>10334779</v>
+      </c>
+      <c r="F551" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="G551" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H551" s="15" t="s">
+        <v>198</v>
+      </c>
       <c r="I551" s="20"/>
       <c r="J551" s="19"/>
       <c r="K551" s="18"/>
@@ -31129,19 +31146,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D552" s="15">
-        <v>1142634858</v>
+        <v>1122819199</v>
       </c>
       <c r="E552" s="16">
-        <v>10334475</v>
+        <v>10332555</v>
       </c>
       <c r="F552" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G552" s="15" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="H552" s="15" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="I552" s="20"/>
       <c r="J552" s="19"/>
@@ -31178,19 +31195,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D553" s="15">
-        <v>1010537767</v>
+        <v>1013260200</v>
       </c>
       <c r="E553" s="16">
-        <v>10334779</v>
+        <v>10332515</v>
       </c>
       <c r="F553" s="15" t="s">
-        <v>299</v>
+        <v>553</v>
       </c>
       <c r="G553" s="15" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="H553" s="15" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="I553" s="20"/>
       <c r="J553" s="19"/>
@@ -31227,10 +31244,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D554" s="15">
-        <v>1122819199</v>
+        <v>1553989783</v>
       </c>
       <c r="E554" s="16">
-        <v>10332555</v>
+        <v>10335120</v>
       </c>
       <c r="F554" s="15" t="s">
         <v>554</v>
@@ -31276,10 +31293,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D555" s="15">
-        <v>1013260200</v>
+        <v>1016789685</v>
       </c>
       <c r="E555" s="16">
-        <v>10332515</v>
+        <v>10335024</v>
       </c>
       <c r="F555" s="15" t="s">
         <v>555</v>
@@ -31318,27 +31335,13 @@
     </row>
     <row r="556" ht="43.15" customHeight="1" spans="1:33">
       <c r="A556" s="6"/>
-      <c r="B556" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C556" s="14">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="D556" s="15">
-        <v>1553989783</v>
-      </c>
-      <c r="E556" s="16">
-        <v>10335120</v>
-      </c>
-      <c r="F556" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="G556" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H556" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B556" s="14"/>
+      <c r="C556" s="14"/>
+      <c r="D556" s="15"/>
+      <c r="E556" s="16"/>
+      <c r="F556" s="15"/>
+      <c r="G556" s="15"/>
+      <c r="H556" s="15"/>
       <c r="I556" s="20"/>
       <c r="J556" s="19"/>
       <c r="K556" s="18"/>
@@ -31374,19 +31377,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D557" s="15">
-        <v>1016789685</v>
+        <v>1012348684</v>
       </c>
       <c r="E557" s="16">
-        <v>10335024</v>
+        <v>10335050</v>
       </c>
       <c r="F557" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G557" s="15" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="H557" s="15" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I557" s="20"/>
       <c r="J557" s="19"/>
@@ -31458,19 +31461,19 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="D559" s="15">
-        <v>1012348684</v>
+        <v>1008797315</v>
       </c>
       <c r="E559" s="16">
-        <v>10335050</v>
+        <v>10334423</v>
       </c>
       <c r="F559" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G559" s="15" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="H559" s="15" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="I559" s="20"/>
       <c r="J559" s="19"/>
@@ -31500,13 +31503,27 @@
     </row>
     <row r="560" ht="43.15" customHeight="1" spans="1:33">
       <c r="A560" s="6"/>
-      <c r="B560" s="14"/>
-      <c r="C560" s="14"/>
-      <c r="D560" s="15"/>
-      <c r="E560" s="16"/>
-      <c r="F560" s="15"/>
-      <c r="G560" s="15"/>
-      <c r="H560" s="15"/>
+      <c r="B560" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C560" s="14">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D560" s="15">
+        <v>1553553976</v>
+      </c>
+      <c r="E560" s="16">
+        <v>10334395</v>
+      </c>
+      <c r="F560" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="G560" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H560" s="15" t="s">
+        <v>213</v>
+      </c>
       <c r="I560" s="20"/>
       <c r="J560" s="19"/>
       <c r="K560" s="18"/>
@@ -31535,27 +31552,13 @@
     </row>
     <row r="561" ht="43.15" customHeight="1" spans="1:33">
       <c r="A561" s="6"/>
-      <c r="B561" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C561" s="14">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="D561" s="15">
-        <v>1008797315</v>
-      </c>
-      <c r="E561" s="16">
-        <v>10334423</v>
-      </c>
-      <c r="F561" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="G561" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H561" s="15" t="s">
-        <v>213</v>
-      </c>
+      <c r="B561" s="14"/>
+      <c r="C561" s="14"/>
+      <c r="D561" s="15"/>
+      <c r="E561" s="16"/>
+      <c r="F561" s="15"/>
+      <c r="G561" s="15"/>
+      <c r="H561" s="15"/>
       <c r="I561" s="20"/>
       <c r="J561" s="19"/>
       <c r="K561" s="18"/>
@@ -31582,29 +31585,17 @@
       <c r="AF561" s="18"/>
       <c r="AG561" s="18"/>
     </row>
-    <row r="562" ht="43.15" customHeight="1" spans="1:33">
-      <c r="A562" s="6"/>
-      <c r="B562" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C562" s="14">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="D562" s="15">
-        <v>1553553976</v>
-      </c>
-      <c r="E562" s="16">
-        <v>10334395</v>
-      </c>
-      <c r="F562" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="G562" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H562" s="15" t="s">
-        <v>213</v>
-      </c>
+    <row r="562" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A562" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="B562" s="10"/>
+      <c r="C562" s="10"/>
+      <c r="D562" s="10"/>
+      <c r="E562" s="11"/>
+      <c r="F562" s="10"/>
+      <c r="G562" s="10"/>
+      <c r="H562" s="10"/>
       <c r="I562" s="20"/>
       <c r="J562" s="19"/>
       <c r="K562" s="18"/>
@@ -31631,15 +31622,29 @@
       <c r="AF562" s="18"/>
       <c r="AG562" s="18"/>
     </row>
-    <row r="563" ht="43.15" customHeight="1" spans="1:33">
-      <c r="A563" s="6"/>
-      <c r="B563" s="14"/>
-      <c r="C563" s="14"/>
-      <c r="D563" s="15"/>
-      <c r="E563" s="16"/>
-      <c r="F563" s="15"/>
-      <c r="G563" s="15"/>
-      <c r="H563" s="15"/>
+    <row r="563" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A563" s="12"/>
+      <c r="B563" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C563" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D563" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E563" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F563" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G563" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H563" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I563" s="20"/>
       <c r="J563" s="19"/>
       <c r="K563" s="18"/>
@@ -31666,17 +31671,15 @@
       <c r="AF563" s="18"/>
       <c r="AG563" s="18"/>
     </row>
-    <row r="564" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A564" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="B564" s="10"/>
-      <c r="C564" s="10"/>
-      <c r="D564" s="10"/>
-      <c r="E564" s="11"/>
-      <c r="F564" s="10"/>
-      <c r="G564" s="10"/>
-      <c r="H564" s="10"/>
+    <row r="564" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A564" s="6"/>
+      <c r="B564" s="29"/>
+      <c r="C564" s="29"/>
+      <c r="D564" s="30"/>
+      <c r="E564" s="16"/>
+      <c r="F564" s="30"/>
+      <c r="G564" s="30"/>
+      <c r="H564" s="30"/>
       <c r="I564" s="20"/>
       <c r="J564" s="19"/>
       <c r="K564" s="18"/>
@@ -31703,38 +31706,38 @@
       <c r="AF564" s="18"/>
       <c r="AG564" s="18"/>
     </row>
-    <row r="565" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A565" s="12"/>
-      <c r="B565" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C565" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D565" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E565" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F565" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G565" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H565" s="8" t="s">
-        <v>6</v>
+    <row r="565" ht="43.15" customHeight="1" spans="1:33">
+      <c r="A565" s="6"/>
+      <c r="B565" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C565" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D565" s="15">
+        <v>1126665095</v>
+      </c>
+      <c r="E565" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F565" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G565" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H565" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="I565" s="20"/>
       <c r="J565" s="19"/>
-      <c r="K565" s="18"/>
-      <c r="L565" s="18"/>
-      <c r="M565" s="18"/>
-      <c r="N565" s="18"/>
-      <c r="O565" s="18"/>
-      <c r="P565" s="18"/>
-      <c r="Q565" s="18"/>
+      <c r="K565" s="8"/>
+      <c r="L565" s="8"/>
+      <c r="M565" s="8"/>
+      <c r="N565" s="13"/>
+      <c r="O565" s="8"/>
+      <c r="P565" s="8"/>
+      <c r="Q565" s="8"/>
       <c r="R565" s="18"/>
       <c r="S565" s="18"/>
       <c r="T565" s="18"/>
@@ -31802,7 +31805,7 @@
         <v>10318924</v>
       </c>
       <c r="F567" s="30" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G567" s="30" t="s">
         <v>197</v>
@@ -31886,7 +31889,7 @@
         <v>10329902</v>
       </c>
       <c r="F569" s="30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G569" s="30" t="s">
         <v>212</v>
@@ -32091,7 +32094,7 @@
         <v>10324244</v>
       </c>
       <c r="F574" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G574" s="15" t="s">
         <v>53</v>
@@ -32175,7 +32178,7 @@
         <v>10333447</v>
       </c>
       <c r="F576" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G576" s="15" t="s">
         <v>61</v>
@@ -32224,7 +32227,7 @@
         <v>10333590</v>
       </c>
       <c r="F577" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G577" s="15" t="s">
         <v>61</v>
@@ -32295,13 +32298,13 @@
     </row>
     <row r="579" ht="15" customHeight="1" spans="1:33">
       <c r="A579" s="6"/>
-      <c r="B579" s="31"/>
-      <c r="C579" s="31"/>
-      <c r="D579" s="32"/>
-      <c r="E579" s="33"/>
-      <c r="F579" s="32"/>
-      <c r="G579" s="32"/>
-      <c r="H579" s="32"/>
+      <c r="B579" s="32"/>
+      <c r="C579" s="32"/>
+      <c r="D579" s="33"/>
+      <c r="E579" s="34"/>
+      <c r="F579" s="33"/>
+      <c r="G579" s="33"/>
+      <c r="H579" s="33"/>
       <c r="I579" s="20"/>
       <c r="J579" s="19"/>
       <c r="K579" s="18"/>
@@ -32329,6 +32332,9 @@
       <c r="AG579" s="18"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B3:H577" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="13">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A9:A10"/>
@@ -32340,8 +32346,8 @@
     <mergeCell ref="A458:A459"/>
     <mergeCell ref="A478:A479"/>
     <mergeCell ref="A487:A488"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="A564:A565"/>
+    <mergeCell ref="A500:A501"/>
+    <mergeCell ref="A562:A563"/>
     <mergeCell ref="A571:A572"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
